--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,195 +434,82 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>pressure1</t>
+          <t>Номер</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pressure2</t>
+          <t>Тип ТО</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pressure3</t>
+          <t>Дата ТО</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mark_transmission</t>
+          <t>Оценка</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>machine_id</t>
+          <t>Ремонт</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ТО-3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+        <v>5.38095238095238</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>реммонт не требуется</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ТО-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+        <v>6.190476190476191</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Замените масло в двигателеЗамените охлаждающую жидкостьЗамените масло в двигателеЗамените охлаждающую жидкость</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,43 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +40,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,99 +346,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Номер</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Тип ТО</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Дата ТО</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Оценка</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ремонт</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ТО-3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2022-06-03</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>5.38095238095238</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>реммонт не требуется</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ТО-3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2022-06-07</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.190476190476191</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Замените масло в двигателеЗамените охлаждающую жидкостьЗамените масло в двигателеЗамените охлаждающую жидкость</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <conditionalFormatting sqref="A1:D4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AVERAGE($B1:$D1)&gt;60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -7,15 +7,83 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="my_analysis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Тип ТО</t>
+  </si>
+  <si>
+    <t>Дата ТО</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Ремонт</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Номер машины</t>
+  </si>
+  <si>
+    <t>ТО-1</t>
+  </si>
+  <si>
+    <t>ТО-2</t>
+  </si>
+  <si>
+    <t>ТО-3</t>
+  </si>
+  <si>
+    <t>2022-06-12</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>2022-06-29</t>
+  </si>
+  <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>2022-06-16</t>
+  </si>
+  <si>
+    <t>Проверить разбег колесных пар. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Замените масло в двигателеЗамените охлаждающую жидкостьПроверить давлениеЗамените охлаждающую жидкостьПроверить давлениеЗамените масло в двигателеЗамените охлаждающую жидкостьПроверить давлениеЗамените охлаждающую жидкостьПроверить давлениеЗамените масло в двигателеЗамените охлаждающую жидкостьПроверить давление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить разбег колесных пар. </t>
+  </si>
+  <si>
+    <t>Не допущен</t>
+  </si>
+  <si>
+    <t>Допущен</t>
+  </si>
+  <si>
+    <t>Допущен c ограничениями</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +91,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98FB98"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0E68C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,24 +134,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -347,17 +455,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <conditionalFormatting sqref="A1:D4">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AVERAGE($B1:$D1)&gt;60</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="848.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.142857142857143</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Номер</t>
   </si>
   <si>
-    <t>Тип ТО</t>
+    <t>Вид ТО</t>
   </si>
   <si>
     <t>Дата ТО</t>
@@ -34,49 +34,61 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>Номер машины</t>
-  </si>
-  <si>
-    <t>ТО-1</t>
+    <t>то7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>NJ-1</t>
   </si>
   <si>
     <t>ТО-2</t>
   </si>
   <si>
-    <t>ТО-3</t>
-  </si>
-  <si>
-    <t>2022-06-12</t>
-  </si>
-  <si>
-    <t>2022-06-01</t>
-  </si>
-  <si>
-    <t>2022-06-22</t>
-  </si>
-  <si>
-    <t>2022-06-29</t>
-  </si>
-  <si>
-    <t>2022-06-15</t>
-  </si>
-  <si>
-    <t>2022-06-16</t>
-  </si>
-  <si>
-    <t>Проверить разбег колесных пар. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Требуется ремонт рессорного подвешивания. Замените масло в двигателеЗамените охлаждающую жидкостьПроверить давлениеЗамените охлаждающую жидкостьПроверить давлениеЗамените масло в двигателеЗамените охлаждающую жидкостьПроверить давлениеЗамените охлаждающую жидкостьПроверить давлениеЗамените масло в двигателеЗамените охлаждающую жидкостьПроверить давление</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверить разбег колесных пар. </t>
+    <t>ТО-9</t>
+  </si>
+  <si>
+    <t>то4</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавить смазку в двигатель. Заменить масло в двигателе. Заменить ремни привода генератора. Заменить генератор. Замените масло питательного насоса в гидропередаче. Замените масло в гидротрансформаторе. Заменить смазку в гидропередаче. Отремонтировать компрессор. Проверить утечки питательной магистрали. Проверить утечки тормозной магистрали. Проверить колодки и выход штока тормозного цилиндра. Отрегулировать кран тормозного цилиндра. Вывернуть пробку на крышке тормозного цилиндра. Нарушение уплотнение по штуцерам трубки уравнительного резервуара. Почистить фильтр и открыть двухседельчатый клапан. Отрегулировать редуктор давления. При помощи регулировочной гайки отрегулировать темп понижения. Отремонтировать электропневматический клапан. Заменить тормозные колодки. Заменить шток тормозного цилиндра. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить разбег колесных пар. Добавить смазку в двигатель. Заменить масло в двигателе. Заменить ремни привода генератора. Заменить генератор. Замените масло питательного насоса в гидропередаче. Замените масло в гидротрансформаторе. Заменить смазку в гидропередаче. Отремонтировать компрессор. Проверить утечки питательной магистрали. Проверить утечки тормозной магистрали. Проверить колодки и выход штока тормозного цилиндра. Отрегулировать кран тормозного цилиндра. Вывернуть пробку на крышке тормозного цилиндра. Нарушение уплотнение по штуцерам трубки уравнительного резервуара. Компенсировать повышенное давление в ТМ постановкой ручки крана в 5А. Почистить фильтр и открыть двухседельчатый клапан. Отрегулировать редуктор давления. При помощи регулировочной гайки отрегулировать темп понижения. Отремонтировать электропневматический клапан. Заменить тормозные колодки. Заменить шток тормозного цилиндра. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить разбег колесных пар. Добавить смазку в двигатель. Заменить масло в двигателе. Заменить ремни привода генератора. Заменить генератор. Замените масло питательного насоса в гидропередаче. Замените масло в гидротрансформаторе. Заменить смазку в гидропередаче. Отремонтировать компрессор. Проверить утечки питательной магистрали. Проверить утечки тормозной магистрали. Проверить колодки и выход штока тормозного цилиндра. Отрегулировать кран тормозного цилиндра. Вывернуть пробку на крышке тормозного цилиндра. Нарушение уплотнение по штуцерам трубки уравнительного резервуара. Почистить фильтр и открыть двухседельчатый клапан. Отрегулировать редуктор давления. При помощи регулировочной гайки отрегулировать темп понижения. Заменить тормозные колодки. Заменить шток тормозного цилиндра. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Требуется ремонт колесных пар. Добавить смазку в двигатель. Заменить масло в двигателе. Заменить ремни привода генератора. Заменить генератор. Замените масло питательного насоса в гидропередаче. Замените масло в гидротрансформаторе. Заменить смазку в гидропередаче. Отремонтировать компрессор. Проверить утечки питательной магистрали. Проверить утечки тормозной магистрали. Проверить колодки и выход штока тормозного цилиндра. Отрегулировать кран тормозного цилиндра. Вывернуть пробку на крышке тормозного цилиндра. Нарушение уплотнение по штуцерам трубки уравнительного резервуара. Почистить фильтр и открыть двухседельчатый клапан. Отрегулировать редуктор давления. При помощи регулировочной гайки отрегулировать темп понижения. Отремонтировать электропневматический клапан. Заменить тормозные колодки. Заменить шток тормозного цилиндра. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить разбег колесных пар. Добавить смазку в двигатель. Заменить масло в двигателе. Заменить ремни привода генератора. Заменить генератор. Замените масло питательного насоса в гидропередаче. Замените масло в гидротрансформаторе. Заменить смазку в гидропередаче. Отремонтировать компрессор. Проверить утечки питательной магистрали. Проверить утечки тормозной магистрали. Проверить колодки и выход штока тормозного цилиндра. Отрегулировать кран тормозного цилиндра. Вывернуть пробку на крышке тормозного цилиндра. Нарушение уплотнение по штуцерам трубки уравнительного резервуара. Почистить фильтр и открыть двухседельчатый клапан. Отрегулировать редуктор давления. При помощи регулировочной гайки отрегулировать темп понижения. Отремонтировать электропневматический клапан. Заменить тормозные колодки. Заменить шток тормозного цилиндра. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отрегулировать кран тормозного цилиндра. </t>
+  </si>
+  <si>
+    <t>Ремонт не требуется</t>
   </si>
   <si>
     <t>Не допущен</t>
   </si>
   <si>
     <t>Допущен</t>
-  </si>
-  <si>
-    <t>Допущен c ограничениями</t>
   </si>
 </sst>
 </file>
@@ -100,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,19 +121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFA8072"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF98FB98"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0E68C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,14 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,14 +468,13 @@
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="848.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="910.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,138 +493,183 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>6.142857142857143</v>
+        <v>4.877551020408164</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>3.775510204081633</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>3.979591836734694</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>3.448979591836735</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>3.88</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Номер</t>
   </si>
@@ -34,61 +34,58 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>то7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>NJ-1</t>
-  </si>
-  <si>
     <t>ТО-2</t>
   </si>
   <si>
-    <t>ТО-9</t>
-  </si>
-  <si>
-    <t>то4</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добавить смазку в двигатель. Заменить масло в двигателе. Заменить ремни привода генератора. Заменить генератор. Замените масло питательного насоса в гидропередаче. Замените масло в гидротрансформаторе. Заменить смазку в гидропередаче. Отремонтировать компрессор. Проверить утечки питательной магистрали. Проверить утечки тормозной магистрали. Проверить колодки и выход штока тормозного цилиндра. Отрегулировать кран тормозного цилиндра. Вывернуть пробку на крышке тормозного цилиндра. Нарушение уплотнение по штуцерам трубки уравнительного резервуара. Почистить фильтр и открыть двухседельчатый клапан. Отрегулировать редуктор давления. При помощи регулировочной гайки отрегулировать темп понижения. Отремонтировать электропневматический клапан. Заменить тормозные колодки. Заменить шток тормозного цилиндра. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверить разбег колесных пар. Добавить смазку в двигатель. Заменить масло в двигателе. Заменить ремни привода генератора. Заменить генератор. Замените масло питательного насоса в гидропередаче. Замените масло в гидротрансформаторе. Заменить смазку в гидропередаче. Отремонтировать компрессор. Проверить утечки питательной магистрали. Проверить утечки тормозной магистрали. Проверить колодки и выход штока тормозного цилиндра. Отрегулировать кран тормозного цилиндра. Вывернуть пробку на крышке тормозного цилиндра. Нарушение уплотнение по штуцерам трубки уравнительного резервуара. Компенсировать повышенное давление в ТМ постановкой ручки крана в 5А. Почистить фильтр и открыть двухседельчатый клапан. Отрегулировать редуктор давления. При помощи регулировочной гайки отрегулировать темп понижения. Отремонтировать электропневматический клапан. Заменить тормозные колодки. Заменить шток тормозного цилиндра. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверить разбег колесных пар. Добавить смазку в двигатель. Заменить масло в двигателе. Заменить ремни привода генератора. Заменить генератор. Замените масло питательного насоса в гидропередаче. Замените масло в гидротрансформаторе. Заменить смазку в гидропередаче. Отремонтировать компрессор. Проверить утечки питательной магистрали. Проверить утечки тормозной магистрали. Проверить колодки и выход штока тормозного цилиндра. Отрегулировать кран тормозного цилиндра. Вывернуть пробку на крышке тормозного цилиндра. Нарушение уплотнение по штуцерам трубки уравнительного резервуара. Почистить фильтр и открыть двухседельчатый клапан. Отрегулировать редуктор давления. При помощи регулировочной гайки отрегулировать темп понижения. Заменить тормозные колодки. Заменить шток тормозного цилиндра. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Требуется ремонт колесных пар. Добавить смазку в двигатель. Заменить масло в двигателе. Заменить ремни привода генератора. Заменить генератор. Замените масло питательного насоса в гидропередаче. Замените масло в гидротрансформаторе. Заменить смазку в гидропередаче. Отремонтировать компрессор. Проверить утечки питательной магистрали. Проверить утечки тормозной магистрали. Проверить колодки и выход штока тормозного цилиндра. Отрегулировать кран тормозного цилиндра. Вывернуть пробку на крышке тормозного цилиндра. Нарушение уплотнение по штуцерам трубки уравнительного резервуара. Почистить фильтр и открыть двухседельчатый клапан. Отрегулировать редуктор давления. При помощи регулировочной гайки отрегулировать темп понижения. Отремонтировать электропневматический клапан. Заменить тормозные колодки. Заменить шток тормозного цилиндра. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверить разбег колесных пар. Добавить смазку в двигатель. Заменить масло в двигателе. Заменить ремни привода генератора. Заменить генератор. Замените масло питательного насоса в гидропередаче. Замените масло в гидротрансформаторе. Заменить смазку в гидропередаче. Отремонтировать компрессор. Проверить утечки питательной магистрали. Проверить утечки тормозной магистрали. Проверить колодки и выход штока тормозного цилиндра. Отрегулировать кран тормозного цилиндра. Вывернуть пробку на крышке тормозного цилиндра. Нарушение уплотнение по штуцерам трубки уравнительного резервуара. Почистить фильтр и открыть двухседельчатый клапан. Отрегулировать редуктор давления. При помощи регулировочной гайки отрегулировать темп понижения. Отремонтировать электропневматический клапан. Заменить тормозные колодки. Заменить шток тормозного цилиндра. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отрегулировать кран тормозного цилиндра. </t>
+    <t>ТО-3</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-06-03</t>
+  </si>
+  <si>
+    <t>2022-06-05</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
+    <t>2022-06-18</t>
   </si>
   <si>
     <t>Ремонт не требуется</t>
   </si>
   <si>
+    <t xml:space="preserve">Проверить разбег колесных пар. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить разбег колесных пар. Проверить рессорное подвешивание. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить разбег колесных пар. Проверить рессорное подвешивание. Проверить количество смазки в двигателе. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить разбег колесных пар. Проверить рессорное подвешивание. Проверить количество смазки в двигателе. Проверить толщину тормозных колодок. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить разбег колесных пар. Проверить рессорное подвешивание. Заменить приборы безопасности. </t>
+  </si>
+  <si>
+    <t>Допущен</t>
+  </si>
+  <si>
+    <t>Допущен c ограничениями</t>
+  </si>
+  <si>
     <t>Не допущен</t>
-  </si>
-  <si>
-    <t>Допущен</t>
   </si>
 </sst>
 </file>
@@ -112,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,13 +118,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFA8072"/>
+        <fgColor rgb="FF98FB98"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF98FB98"/>
+        <fgColor rgb="FFF0E68C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8072"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,13 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,10 +472,10 @@
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="910.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="143.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -496,180 +500,142 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="2">
-        <v>4.877551020408164</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="2">
-        <v>3.775510204081633</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>3.979591836734694</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>3.448979591836735</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>3.88</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
+      <c r="D8" s="4">
+        <v>6.57</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
